--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2608599.882237447</v>
+        <v>2606712.300721044</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>176.9102945984803</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>56.72699744179295</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>158.4785919752547</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>183.8819774006273</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>125.8721928563317</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.220846587375984</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>120.523481988832</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>64.76935934992291</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>157.0044783406137</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.48345164522459</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896927</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>279.1120900633767</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>89.53315458193613</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664936</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1901,7 +1901,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>237.3965091869244</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>108.6200406500435</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750039</v>
+        <v>220.7712158510645</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750035</v>
+        <v>11.34239988529834</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>23.72668963665274</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,19 +2764,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>80.03399750504441</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.90786120994045</v>
+        <v>73.8771026809063</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965534</v>
+        <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801216</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897911</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373646</v>
+        <v>98.36167833373655</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C2" t="n">
         <v>959.5129866402885</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2287.245646591693</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2033.483861229785</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1702.420973886214</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1349.6523186161</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1349.6523186161</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>959.5129866402885</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714563</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>962.1194880117298</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C5" t="n">
-        <v>593.1569710713181</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>234.8912724645676</v>
+        <v>864.6405432696253</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.852290671381</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2280.203542751141</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1949.14065540757</v>
       </c>
       <c r="W5" t="n">
-        <v>2112.324418312743</v>
+        <v>1596.372000137456</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.858660051663</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="Y5" t="n">
-        <v>1348.719328075852</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>331.20325038051</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>181.0866109681743</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>181.0866109681743</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>181.0866109681743</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>927.7879015331882</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>806.0470106353781</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2631.72549571527</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2300.662608371699</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1947.893953101585</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1574.428194840505</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.336405062904</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>507.336405062904</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>507.336405062904</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>359.4233114805108</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>212.5333639826005</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>698.712065060056</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>323.2572191628418</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>68.57273095695493</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.336405062904</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5124,19 +5124,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>213.9110074201017</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,7 +5215,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609665</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550797</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181191</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201017</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.9110074201017</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5264,37 +5264,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5358,19 +5358,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1297.403637238984</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>1008.274998452543</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>753.5905102466558</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>753.5905102466558</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>525.6009593486384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5516,22 +5516,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>835.416391538794</v>
+        <v>898.792518248838</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>898.792518248838</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>609.3753482118774</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5908,22 +5908,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>964.9199289028916</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,13 +5987,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
         <v>779.063975947119</v>
@@ -6160,7 +6160,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1176.464187454171</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>887.3355486677287</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>887.3355486677287</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>268.0733921265323</v>
+        <v>415.5090525528011</v>
       </c>
       <c r="C28" t="n">
-        <v>268.0733921265323</v>
+        <v>415.5090525528011</v>
       </c>
       <c r="D28" t="n">
-        <v>268.0733921265323</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E28" t="n">
-        <v>268.0733921265323</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F28" t="n">
-        <v>121.183444628622</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6412,22 +6412,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1107.078735313013</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>817.950096526571</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>817.950096526571</v>
       </c>
       <c r="W28" t="n">
-        <v>898.5039869983195</v>
+        <v>817.950096526571</v>
       </c>
       <c r="X28" t="n">
-        <v>670.5144361003022</v>
+        <v>817.950096526571</v>
       </c>
       <c r="Y28" t="n">
-        <v>449.7218569567721</v>
+        <v>597.1575173830408</v>
       </c>
     </row>
     <row r="29">
@@ -6455,10 +6455,10 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
@@ -6467,7 +6467,7 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>547.3312808061771</v>
+        <v>490.7966934617678</v>
       </c>
       <c r="C31" t="n">
-        <v>434.155963159641</v>
+        <v>490.7966934617678</v>
       </c>
       <c r="D31" t="n">
-        <v>339.800189028676</v>
+        <v>396.4409193308028</v>
       </c>
       <c r="E31" t="n">
-        <v>247.6479607276536</v>
+        <v>304.2886910297804</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276536</v>
+        <v>304.2886910297804</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,13 +6622,13 @@
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167069</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365246</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030867</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>148.5096761832847</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,7 +6853,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,16 +7090,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,16 +7184,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7254,22 +7254,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,10 +7333,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7552,28 +7552,28 @@
         <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,13 +7591,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103135</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649695</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627892</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>199.7396287231151</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9006,22 +9006,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>43.65987261462459</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>358.3520020925044</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,19 +9489,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>104.874910276575</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>165.9802687929764</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>9.90051268448611</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,28 +10902,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>412.6002929596431</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>308.125109627204</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>51.71984429841025</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>7.125262335200603</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>132.0144064764531</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>48.84084321165298</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>117.0896147389937</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.3938331833854</v>
+        <v>0.7763452073247379</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338571</v>
+        <v>210.2051611730909</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,16 +24604,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>142.7668788267248</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,19 +24652,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>141.5135635533449</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.7208623434398</v>
+        <v>50.75162087247395</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437423</v>
+        <v>90.2177913943742</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571494</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>4.689582056016661e-13</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>803444.9333717129</v>
+        <v>803444.9333717128</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>803444.9333717128</v>
+        <v>803444.9333717129</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>835031.0885868352</v>
+        <v>835031.0885868353</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842428.5837605785</v>
+        <v>842428.5837605787</v>
       </c>
     </row>
   </sheetData>
@@ -26314,40 +26314,40 @@
         <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982127</v>
-      </c>
-      <c r="D2" t="n">
-        <v>615781.3273982124</v>
       </c>
       <c r="E2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="F2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="I2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="G2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="H2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="J2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="K2" t="n">
-        <v>610233.206017905</v>
+        <v>610233.2060179048</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="O2" t="n">
         <v>615781.3273982125</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.137676386013045e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086692</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,13 +26442,13 @@
         <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106723</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
         <v>44593.39482819117</v>
@@ -26457,7 +26457,7 @@
         <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819122</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-222678.4976662656</v>
+        <v>-222678.4976662655</v>
       </c>
       <c r="C6" t="n">
+        <v>367289.381548279</v>
+      </c>
+      <c r="D6" t="n">
         <v>367289.3815482788</v>
       </c>
-      <c r="D6" t="n">
-        <v>367289.3815482785</v>
-      </c>
       <c r="E6" t="n">
-        <v>-52778.38040592063</v>
+        <v>-52875.83953189285</v>
       </c>
       <c r="F6" t="n">
-        <v>472381.6560709757</v>
+        <v>472284.1969450036</v>
       </c>
       <c r="G6" t="n">
-        <v>472381.6560709756</v>
+        <v>472284.1969450033</v>
       </c>
       <c r="H6" t="n">
-        <v>472381.6560709757</v>
+        <v>472284.1969450034</v>
       </c>
       <c r="I6" t="n">
-        <v>472381.6560709756</v>
+        <v>472284.1969450035</v>
       </c>
       <c r="J6" t="n">
-        <v>295958.4368783828</v>
+        <v>295860.9777524103</v>
       </c>
       <c r="K6" t="n">
-        <v>429103.1620837694</v>
+        <v>429084.6683458349</v>
       </c>
       <c r="L6" t="n">
         <v>463129.919949129</v>
       </c>
       <c r="M6" t="n">
-        <v>338671.8115161589</v>
+        <v>338671.8115161585</v>
       </c>
       <c r="N6" t="n">
-        <v>473472.8267499962</v>
+        <v>473472.8267499958</v>
       </c>
       <c r="O6" t="n">
-        <v>473472.826749996</v>
+        <v>473472.8267499959</v>
       </c>
       <c r="P6" t="n">
-        <v>429310.2214471504</v>
+        <v>429310.2214471501</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.422095482516306e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26753,28 +26753,28 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.422095482516306e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108365</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.422095482516306e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>39.06311083518733</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.53802575917749</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,25 +27585,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>229.5548768001848</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>223.4517780970071</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>32.56634295703051</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>41.43760940271922</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647188</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>244.7494097821755</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,7 +27907,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>186.4548081583664</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>10.30532391843724</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.0395466913664</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.219468970248272e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307157</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262937</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>287.7526615081892</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>376.8544460126375</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,13 +35969,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>668.7763791429707</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -35984,7 +35984,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,16 +36121,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O20" t="n">
         <v>713.1546070951472</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>339.4611332181801</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>241.8130382709607</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>438.0694836745878</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>253.9933015780506</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>51.81069163939276</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>457.5346514843358</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38035,7 +38035,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R44" t="n">
         <v>59.82538970349808</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>641.3196830252168</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
